--- a/tbl打包工具/excel/mapConfig.xlsx
+++ b/tbl打包工具/excel/mapConfig.xlsx
@@ -1,26 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11610"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="说明" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
-  <si>
-    <t>全国地图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
   <si>
     <t>width</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,37 +50,147 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>default_pt</t>
+    <t>npc_id</t>
+  </si>
+  <si>
+    <t>跳转到其他地图的传送点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地图的NPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2-3-4</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图图片在res/Map文件夹中路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>像素点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img_count</t>
+  </si>
+  <si>
+    <t>img_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>row</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>column</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切成的小图数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切成的小图的行列数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司隶州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>silizhouMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>citys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图上所属郡城分布点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-6;4-71;77-15;63-60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>jump_pt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>npc_id</t>
-  </si>
-  <si>
-    <t>default_pt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳转到此地图的默认点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳转到其他地图的传送点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>npc_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本地图的NPC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>38-30</t>
+    <t>yangzhouMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扬州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yizhouMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>益州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>youzhouMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiaozhouMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jingzhouMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荆州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凉州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liangzhouMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bingjiMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并州冀州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qingxuyanyuMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青州徐州兖州豫州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用;分割</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -92,79 +198,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1-2-3-4</t>
-  </si>
-  <si>
-    <t>1-2-3-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-6;4-71;77-15;63-60</t>
-  </si>
-  <si>
-    <t>path</t>
-  </si>
-  <si>
-    <t>path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地图图片在res/Map文件夹中路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>像素点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每点以32*32为单位块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>map_world</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10-10;53-11;7-50;49-45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>img_count</t>
-  </si>
-  <si>
-    <t>img_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>row</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>column</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>row,column</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>切成的小图数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>切成的小图的行列数</t>
+    <t>101;102;103;104;105;106;107;9001;9002;9003;9004;9005;9006;9007;9008;9009;9010;9011;9012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101;102;103;104;105;106;107;108;109;110;111;112;113</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201;202;203;204;205;206;9013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201;202;203;204;205</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>citys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jump_pt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,8 +273,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -216,11 +282,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -294,6 +365,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -328,6 +400,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -503,89 +576,196 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="15.875" customWidth="1"/>
-    <col min="6" max="6" width="13.625" customWidth="1"/>
-    <col min="7" max="7" width="30.5" customWidth="1"/>
-    <col min="9" max="9" width="10.875" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="17.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="1" customWidth="1"/>
+    <col min="4" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="89.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="53.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D2" s="1">
+        <v>3576</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1836</v>
+      </c>
+      <c r="F2" s="1">
+        <v>28</v>
+      </c>
+      <c r="G2" s="1">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="H2" s="1">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3472</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4440</v>
+      </c>
+      <c r="F3" s="1">
+        <v>63</v>
+      </c>
+      <c r="G3" s="1">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1">
+        <v>7</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2">
-        <v>2048</v>
-      </c>
-      <c r="E2">
-        <v>2031</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2">
-        <v>16</v>
-      </c>
-      <c r="J2">
-        <v>4</v>
-      </c>
-      <c r="K2">
-        <v>4</v>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -596,14 +776,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.75" customWidth="1"/>
     <col min="2" max="2" width="24.375" customWidth="1"/>
@@ -611,105 +791,102 @@
     <col min="4" max="4" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
+      <c r="C10" t="s">
         <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -720,12 +897,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tbl打包工具/excel/mapConfig.xlsx
+++ b/tbl打包工具/excel/mapConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11610"/>
+    <workbookView xWindow="0" yWindow="150" windowWidth="19200" windowHeight="11580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
   <si>
     <t>width</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -202,10 +202,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>101;102;103;104;105;106;107;9001;9002;9003;9004;9005;9006;9007;9008;9009;9010;9011;9012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>101;102;103;104;105;106;107;108;109;110;111;112;113</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -223,6 +219,42 @@
   </si>
   <si>
     <t>jump_pt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>301;302;303;304;305;306;307;9013;9014;9015;9016;9017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104;105;301;302;303;304;305;306;307</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>401;402;403;404;405;406;407;408;409</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>401;402;403</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>501;502;503;504;505;506</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>304;501;502</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101;102;103;104;105;106;107;9001;9002;9003;9004;9005;9006;9007;9008;9010;9011;9012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>601;602;603;604;605;606;607;9009;9018;9019;9020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>106;107;201;202;305;306;307;501;502;601</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -580,7 +612,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -621,10 +653,10 @@
         <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
@@ -653,10 +685,10 @@
         <v>7</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
@@ -685,10 +717,10 @@
         <v>7</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -701,6 +733,27 @@
       <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="D4" s="1">
+        <v>5112</v>
+      </c>
+      <c r="E4" s="1">
+        <v>6112</v>
+      </c>
+      <c r="F4" s="1">
+        <v>84</v>
+      </c>
+      <c r="G4" s="1">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1">
+        <v>7</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
@@ -712,6 +765,27 @@
       <c r="C5" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="D5" s="1">
+        <v>5460</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1980</v>
+      </c>
+      <c r="F5" s="1">
+        <v>32</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4</v>
+      </c>
+      <c r="H5" s="1">
+        <v>8</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
@@ -723,6 +797,27 @@
       <c r="C6" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="D6" s="1">
+        <v>3928</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3060</v>
+      </c>
+      <c r="F6" s="1">
+        <v>48</v>
+      </c>
+      <c r="G6" s="1">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1">
+        <v>8</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
@@ -733,6 +828,27 @@
       </c>
       <c r="C7" s="1" t="s">
         <v>36</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2500</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5064</v>
+      </c>
+      <c r="F7" s="1">
+        <v>50</v>
+      </c>
+      <c r="G7" s="1">
+        <v>10</v>
+      </c>
+      <c r="H7" s="1">
+        <v>5</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">

--- a/tbl打包工具/excel/mapConfig.xlsx
+++ b/tbl打包工具/excel/mapConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="150" windowWidth="19200" windowHeight="11580"/>
+    <workbookView xWindow="0" yWindow="180" windowWidth="19200" windowHeight="11550"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
   <si>
     <t>width</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -255,6 +255,30 @@
   </si>
   <si>
     <t>106;107;201;202;305;306;307;501;502;601</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101;102;103;301;302;303;701</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>701;702;703;704;705;706</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>801;802;803;804;805;901;902;903;904;905;906;907;9021;9022;9023;9024;9025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001;1002;1003;1004;1005;1006;1101;1102;1103;1104;1105;1201;1202;1203;1204;1205;1206;1301;1302;1303;1304;1305;1306;9026;9027;9028</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110;111;112;113;401;701;801;802;803</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>108;109;203;204;205;601;801;802;803</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -301,12 +325,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -612,7 +639,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -623,7 +650,7 @@
     <col min="4" max="5" width="9" style="1"/>
     <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="89.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="85.125" style="1" customWidth="1"/>
     <col min="10" max="10" width="53.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -861,6 +888,27 @@
       <c r="C8" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="D8" s="1">
+        <v>4464</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3944</v>
+      </c>
+      <c r="F8" s="1">
+        <v>72</v>
+      </c>
+      <c r="G8" s="1">
+        <v>8</v>
+      </c>
+      <c r="H8" s="1">
+        <v>9</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
@@ -872,8 +920,29 @@
       <c r="C9" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="D9" s="1">
+        <v>3176</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3024</v>
+      </c>
+      <c r="F9" s="1">
+        <v>42</v>
+      </c>
+      <c r="G9" s="1">
+        <v>6</v>
+      </c>
+      <c r="H9" s="1">
+        <v>7</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -882,6 +951,27 @@
       </c>
       <c r="C10" s="1" t="s">
         <v>42</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4044</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2760</v>
+      </c>
+      <c r="F10" s="1">
+        <v>48</v>
+      </c>
+      <c r="G10" s="1">
+        <v>6</v>
+      </c>
+      <c r="H10" s="1">
+        <v>8</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/tbl打包工具/excel/mapConfig.xlsx
+++ b/tbl打包工具/excel/mapConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="180" windowWidth="19200" windowHeight="11550"/>
+    <workbookView xWindow="0" yWindow="210" windowWidth="19200" windowHeight="11520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -206,10 +206,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>201;202;203;204;205;206;9013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>201;202;203;204;205</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -274,11 +270,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>110;111;112;113;401;701;801;802;803</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>108;109;203;204;205;601;801;802;803</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110;111;112;113;401;402;403;701;801;802;803</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201;202;203;204;205;206;9029</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -639,7 +639,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -680,10 +680,10 @@
         <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
@@ -712,7 +712,7 @@
         <v>7</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>47</v>
@@ -744,10 +744,10 @@
         <v>7</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -767,19 +767,19 @@
         <v>6112</v>
       </c>
       <c r="F4" s="1">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="G4" s="1">
         <v>12</v>
       </c>
       <c r="H4" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
@@ -799,19 +799,19 @@
         <v>1980</v>
       </c>
       <c r="F5" s="1">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G5" s="1">
         <v>4</v>
       </c>
       <c r="H5" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
@@ -840,10 +840,10 @@
         <v>8</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
@@ -872,10 +872,10 @@
         <v>5</v>
       </c>
       <c r="I7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -904,10 +904,10 @@
         <v>9</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -936,7 +936,7 @@
         <v>7</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>65</v>
@@ -968,10 +968,10 @@
         <v>8</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/tbl打包工具/excel/mapConfig.xlsx
+++ b/tbl打包工具/excel/mapConfig.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="210" windowWidth="19200" windowHeight="11520"/>
+    <workbookView xWindow="0" yWindow="240" windowWidth="19200" windowHeight="11490" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="76">
   <si>
     <t>width</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,17 +53,6 @@
     <t>npc_id</t>
   </si>
   <si>
-    <t>跳转到其他地图的传送点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本地图的NPC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-2-3-4</t>
-  </si>
-  <si>
     <t>path</t>
   </si>
   <si>
@@ -114,14 +103,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>地图上所属郡城分布点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-6;4-71;77-15;63-60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>jump_pt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -190,10 +171,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用;分割</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>每点以32*32为单位块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -218,46 +195,61 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>104;105;301;302;303;304;305;306;307</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>401;402;403</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>501;502;503;504;505;506</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>304;501;502</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101;102;103;104;105;106;107;9001;9002;9003;9004;9005;9006;9007;9008;9010;9011;9012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>106;107;201;202;305;306;307;501;502;601</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101;102;103;301;302;303;701</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>108;109;203;204;205;601;801;802;803</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110;111;112;113;401;402;403;701;801;802;803</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>near_map</t>
+  </si>
+  <si>
+    <t>201;202;203;204;205;206;9029</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>301;302;303;304;305;306;307;9013;9014;9015;9016;9017</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>104;105;301;302;303;304;305;306;307</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>401;402;403;404;405;406;407;408;409</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>401;402;403</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>501;502;503;504;505;506</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>304;501;502</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101;102;103;104;105;106;107;9001;9002;9003;9004;9005;9006;9007;9008;9010;9011;9012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>601;602;603;604;605;606;607;9009;9018;9019;9020</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>106;107;201;202;305;306;307;501;502;601</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101;102;103;301;302;303;701</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>701;702;703;704;705;706</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -270,15 +262,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>108;109;203;204;205;601;801;802;803</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>110;111;112;113;401;402;403;701;801;802;803</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>201;202;203;204;205;206;9029</t>
+    <t>near_map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图上所属郡城分布点，用;分割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转到其他地图的传送点，5-6;4-71;77-15;63-60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地图的NPC，用;分割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-9-1;2-6-3;2-9-8-4;2-6-5;2-6;2-9-1-7;2-9-8;2-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-1;3-6-2;3-1-8-4;3-5;3-6;3-7;3-1-8;3-6-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-8-1;4-8-9-2;4-8-1-3;4-8-9-6-5;4-8-9-6;4-8-1-7;4-8;4-8-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-6-1;5-6-2;5-3;5-6-8-4;5-6;5-3-7;5-6-9-8;5-6-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-1;6-2;6-3;6-9-8-4;6-5;6-1-7;6-9-8;6-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-1;7-1-9-2;7-3;7-1-8-4;7-3-5;7-1-6;7-1-8;7-1-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-1;8-9-2;8-1-3;8-4;8-9-6-5;8-9-6;8-1-7;8-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9-1;9-2;9-6-3;9-8-4;9-6-5;9-1-7;9-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-9-2;1-3;1-8-4;1-6-5;1-6;1-7;1-8;1-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相邻地图，用;分割,1-9-2;1-3;1-8-4;1-6-5;1-6;1-7;1-8;1-9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -325,7 +361,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -334,6 +370,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -636,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -650,11 +689,13 @@
     <col min="4" max="5" width="9" style="1"/>
     <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="85.125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="53.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="59" style="1" customWidth="1"/>
+    <col min="10" max="10" width="85.375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="54.125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9.625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -662,7 +703,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -671,30 +712,33 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1">
         <v>3576</v>
@@ -712,21 +756,24 @@
         <v>7</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1">
         <v>3472</v>
@@ -746,19 +793,22 @@
       <c r="I3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1">
         <v>5112</v>
@@ -776,21 +826,24 @@
         <v>10</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1">
         <v>5460</v>
@@ -808,21 +861,24 @@
         <v>11</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+        <v>68</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1">
         <v>3928</v>
@@ -840,21 +896,24 @@
         <v>8</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+        <v>69</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D7" s="1">
         <v>2500</v>
@@ -872,21 +931,24 @@
         <v>5</v>
       </c>
       <c r="I7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K7" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D8" s="1">
         <v>4464</v>
@@ -904,21 +966,24 @@
         <v>9</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D9" s="1">
         <v>3176</v>
@@ -936,21 +1001,24 @@
         <v>7</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D10" s="1">
         <v>4044</v>
@@ -967,11 +1035,14 @@
       <c r="H10" s="1">
         <v>8</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>64</v>
+      <c r="I10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -983,21 +1054,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.75" customWidth="1"/>
-    <col min="2" max="2" width="24.375" customWidth="1"/>
-    <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="25.125" customWidth="1"/>
+    <col min="2" max="2" width="54" customWidth="1"/>
+    <col min="3" max="3" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1005,7 +1075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1013,86 +1083,85 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
       <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/tbl打包工具/excel/mapConfig.xlsx
+++ b/tbl打包工具/excel/mapConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="240" windowWidth="19200" windowHeight="11490" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="240" windowWidth="19200" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -306,15 +306,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9-1;9-2;9-6-3;9-8-4;9-6-5;9-1-7;9-8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1-9-2;1-3;1-8-4;1-6-5;1-6;1-7;1-8;1-9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>相邻地图，用;分割,1-9-2;1-3;1-8-4;1-6-5;1-6;1-7;1-8;1-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9-1;9-2;9-6-3;9-8-4;9-6-5;9-6;9-1-7;9-8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -677,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -756,7 +756,7 @@
         <v>7</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>49</v>
@@ -1036,7 +1036,7 @@
         <v>8</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>61</v>
@@ -1056,7 +1056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -1161,7 +1161,7 @@
         <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/tbl打包工具/excel/mapConfig.xlsx
+++ b/tbl打包工具/excel/mapConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="240" windowWidth="19200" windowHeight="11490"/>
+    <workbookView xWindow="0" yWindow="270" windowWidth="19200" windowHeight="11460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="80">
   <si>
     <t>width</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,91 +103,223 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>yangzhouMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扬州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yizhouMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>益州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>youzhouMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiaozhouMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jingzhouMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荆州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凉州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liangzhouMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bingjiMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并州冀州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qingxuyanyuMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青州徐州兖州豫州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每点以32*32为单位块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>row,column</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101;102;103;104;105;106;107;108;109;110;111;112;113</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201;202;203;204;205</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>citys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>jump_pt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>yangzhouMap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扬州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yizhouMap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>益州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>youzhouMap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幽州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jiaozhouMap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jingzhouMap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>荆州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>凉州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>liangzhouMap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bingjiMap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>并州冀州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qingxuyanyuMap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青州徐州兖州豫州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每点以32*32为单位块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>row,column</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101;102;103;104;105;106;107;108;109;110;111;112;113</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>201;202;203;204;205</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>citys</t>
+    <t>104;105;301;302;303;304;305;306;307</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>401;402;403</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>501;502;503;504;505;506</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>304;501;502</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101;102;103;104;105;106;107;9001;9002;9003;9004;9005;9006;9007;9008;9010;9011;9012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>106;107;201;202;305;306;307;501;502;601</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101;102;103;301;302;303;701</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>108;109;203;204;205;601;801;802;803</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110;111;112;113;401;402;403;701;801;802;803</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201;202;203;204;205;206;9029</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>301;302;303;304;305;306;307;9013;9014;9015;9016;9017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>401;402;403;404;405;406;407;408;409</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>601;602;603;604;605;606;607;9009;9018;9019;9020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>701;702;703;704;705;706</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>801;802;803;804;805;901;902;903;904;905;906;907;9021;9022;9023;9024;9025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001;1002;1003;1004;1005;1006;1101;1102;1103;1104;1105;1201;1202;1203;1204;1205;1206;1301;1302;1303;1304;1305;1306;9026;9027;9028</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>near_map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图上所属郡城分布点，用;分割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转到其他地图的传送点，5-6;4-71;77-15;63-60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地图的NPC，用;分割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-9-1;2-6-3;2-9-8-4;2-6-5;2-6;2-9-1-7;2-9-8;2-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-1;3-6-2;3-1-8-4;3-5;3-6;3-7;3-1-8;3-6-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-8-1;4-8-9-2;4-8-1-3;4-8-9-6-5;4-8-9-6;4-8-1-7;4-8;4-8-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-6-1;5-6-2;5-3;5-6-8-4;5-6;5-3-7;5-6-9-8;5-6-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-1;6-2;6-3;6-9-8-4;6-5;6-1-7;6-9-8;6-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-1;7-1-9-2;7-3;7-1-8-4;7-3-5;7-1-6;7-1-8;7-1-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-1;8-9-2;8-1-3;8-4;8-9-6-5;8-9-6;8-1-7;8-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-9-2;1-3;1-8-4;1-6-5;1-6;1-7;1-8;1-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相邻地图，用;分割,1-9-2;1-3;1-8-4;1-6-5;1-6;1-7;1-8;1-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9-1;9-2;9-6-3;9-8-4;9-6-5;9-6;9-1-7;9-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PvPMap1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>near_map</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -195,126 +327,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>104;105;301;302;303;304;305;306;307</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>401;402;403</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>501;502;503;504;505;506</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>304;501;502</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101;102;103;104;105;106;107;9001;9002;9003;9004;9005;9006;9007;9008;9010;9011;9012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>106;107;201;202;305;306;307;501;502;601</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101;102;103;301;302;303;701</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>108;109;203;204;205;601;801;802;803</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>110;111;112;113;401;402;403;701;801;802;803</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>near_map</t>
-  </si>
-  <si>
-    <t>201;202;203;204;205;206;9029</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>301;302;303;304;305;306;307;9013;9014;9015;9016;9017</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>401;402;403;404;405;406;407;408;409</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>601;602;603;604;605;606;607;9009;9018;9019;9020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>701;702;703;704;705;706</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>801;802;803;804;805;901;902;903;904;905;906;907;9021;9022;9023;9024;9025</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1001;1002;1003;1004;1005;1006;1101;1102;1103;1104;1105;1201;1202;1203;1204;1205;1206;1301;1302;1303;1304;1305;1306;9026;9027;9028</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>near_map</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地图上所属郡城分布点，用;分割</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳转到其他地图的传送点，5-6;4-71;77-15;63-60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本地图的NPC，用;分割</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-9-1;2-6-3;2-9-8-4;2-6-5;2-6;2-9-1-7;2-9-8;2-9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-1;3-6-2;3-1-8-4;3-5;3-6;3-7;3-1-8;3-6-9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-8-1;4-8-9-2;4-8-1-3;4-8-9-6-5;4-8-9-6;4-8-1-7;4-8;4-8-9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-6-1;5-6-2;5-3;5-6-8-4;5-6;5-3-7;5-6-9-8;5-6-9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6-1;6-2;6-3;6-9-8-4;6-5;6-1-7;6-9-8;6-9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-1;7-1-9-2;7-3;7-1-8-4;7-3-5;7-1-6;7-1-8;7-1-9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8-1;8-9-2;8-1-3;8-4;8-9-6-5;8-9-6;8-1-7;8-9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-9-2;1-3;1-8-4;1-6-5;1-6;1-7;1-8;1-9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相邻地图，用;分割,1-9-2;1-3;1-8-4;1-6-5;1-6;1-7;1-8;1-9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9-1;9-2;9-6-3;9-8-4;9-6-5;9-6;9-1-7;9-8</t>
+    <t>战场地图没有相邻地图near_map，citys标识我方营寨位置，jump_pt标识敌方营寨位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10101;10102;10103;10104;10105;10111;10112;10113;10114;10115</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -675,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -721,13 +738,13 @@
         <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -756,13 +773,13 @@
         <v>7</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -770,10 +787,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1">
         <v>3472</v>
@@ -791,13 +808,13 @@
         <v>7</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -805,10 +822,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1">
         <v>5112</v>
@@ -826,13 +843,13 @@
         <v>10</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -840,10 +857,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1">
         <v>5460</v>
@@ -861,13 +878,13 @@
         <v>11</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -875,10 +892,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="D6" s="1">
         <v>3928</v>
@@ -896,13 +913,13 @@
         <v>8</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -910,10 +927,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1">
         <v>2500</v>
@@ -931,13 +948,13 @@
         <v>5</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -945,10 +962,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="D8" s="1">
         <v>4464</v>
@@ -966,13 +983,13 @@
         <v>9</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -980,10 +997,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="1">
         <v>3176</v>
@@ -1001,13 +1018,13 @@
         <v>7</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1015,10 +1032,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="1">
         <v>4044</v>
@@ -1036,13 +1053,48 @@
         <v>8</v>
       </c>
       <c r="I10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>52</v>
+      <c r="D11" s="1">
+        <v>1904</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1904</v>
+      </c>
+      <c r="F11" s="1">
+        <v>16</v>
+      </c>
+      <c r="G11" s="1">
+        <v>4</v>
+      </c>
+      <c r="H11" s="1">
+        <v>4</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1054,10 +1106,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1123,7 +1175,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
@@ -1134,18 +1186,18 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -1153,15 +1205,20 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/tbl打包工具/excel/mapConfig.xlsx
+++ b/tbl打包工具/excel/mapConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="270" windowWidth="19200" windowHeight="11460"/>
+    <workbookView xWindow="0" yWindow="300" windowWidth="19200" windowHeight="11430"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="82">
   <si>
     <t>width</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -327,11 +327,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>战场地图没有相邻地图near_map，citys标识我方营寨位置，jump_pt标识敌方营寨位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10101;10102;10103;10104;10105;10111;10112;10113;10114;10115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战场地图没有相邻地图near_map，citys标识我方营寨位置和敌方营寨位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战场地图jump_pt标识敌方部曲数据，1前锋营\2左护军\3右护军\4后卫营\5中军主帅\6中军武将上\7中军武将下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20001;20002;20003;20004;20005</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -695,7 +703,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1091,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0</v>
+        <v>78</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1106,16 +1114,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.75" customWidth="1"/>
-    <col min="2" max="2" width="54" customWidth="1"/>
+    <col min="2" max="2" width="100.125" customWidth="1"/>
     <col min="3" max="3" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1218,7 +1226,12 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/tbl打包工具/excel/mapConfig.xlsx
+++ b/tbl打包工具/excel/mapConfig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="78">
   <si>
     <t>width</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -324,22 +324,6 @@
   </si>
   <si>
     <t>jump_pt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10101;10102;10103;10104;10105;10111;10112;10113;10114;10115</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战场地图没有相邻地图near_map，citys标识我方营寨位置和敌方营寨位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战场地图jump_pt标识敌方部曲数据，1前锋营\2左护军\3右护军\4后卫营\5中军主帅\6中军武将上\7中军武将下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20001;20002;20003;20004;20005</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -702,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1098,11 +1082,11 @@
       <c r="I11" s="1">
         <v>0</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>81</v>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1114,10 +1098,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1222,16 +1206,6 @@
       </c>
       <c r="B11" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B15" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/tbl打包工具/excel/mapConfig.xlsx
+++ b/tbl打包工具/excel/mapConfig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="77">
   <si>
     <t>width</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,82 +91,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>司隶州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>silizhouMap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>citys</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>yangzhouMap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扬州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yizhouMap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>益州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>youzhouMap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幽州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jiaozhouMap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jingzhouMap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>荆州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>凉州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>liangzhouMap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bingjiMap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>并州冀州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qingxuyanyuMap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青州徐州兖州豫州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>每点以32*32为单位块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -175,14 +103,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>101;102;103;104;105;106;107;108;109;110;111;112;113</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>201;202;203;204;205</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>citys</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -191,70 +111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>104;105;301;302;303;304;305;306;307</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>401;402;403</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>501;502;503;504;505;506</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>304;501;502</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101;102;103;104;105;106;107;9001;9002;9003;9004;9005;9006;9007;9008;9010;9011;9012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>106;107;201;202;305;306;307;501;502;601</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101;102;103;301;302;303;701</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>108;109;203;204;205;601;801;802;803</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>110;111;112;113;401;402;403;701;801;802;803</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>201;202;203;204;205;206;9029</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>301;302;303;304;305;306;307;9013;9014;9015;9016;9017</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>401;402;403;404;405;406;407;408;409</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>601;602;603;604;605;606;607;9009;9018;9019;9020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>701;702;703;704;705;706</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>801;802;803;804;805;901;902;903;904;905;906;907;9021;9022;9023;9024;9025</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1001;1002;1003;1004;1005;1006;1101;1102;1103;1104;1105;1201;1202;1203;1204;1205;1206;1301;1302;1303;1304;1305;1306;9026;9027;9028</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>near_map</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -271,59 +127,199 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2-9-1;2-6-3;2-9-8-4;2-6-5;2-6;2-9-1-7;2-9-8;2-9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-1;3-6-2;3-1-8-4;3-5;3-6;3-7;3-1-8;3-6-9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-8-1;4-8-9-2;4-8-1-3;4-8-9-6-5;4-8-9-6;4-8-1-7;4-8;4-8-9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-6-1;5-6-2;5-3;5-6-8-4;5-6;5-3-7;5-6-9-8;5-6-9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6-1;6-2;6-3;6-9-8-4;6-5;6-1-7;6-9-8;6-9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-1;7-1-9-2;7-3;7-1-8-4;7-3-5;7-1-6;7-1-8;7-1-9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8-1;8-9-2;8-1-3;8-4;8-9-6-5;8-9-6;8-1-7;8-9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-9-2;1-3;1-8-4;1-6-5;1-6;1-7;1-8;1-9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>相邻地图，用;分割,1-9-2;1-3;1-8-4;1-6-5;1-6;1-7;1-8;1-9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9-1;9-2;9-6-3;9-8-4;9-6-5;9-6;9-1-7;9-8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PvPMap1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>near_map</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>jump_pt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东北</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NorthEast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华北</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中原</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西北</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战场测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Central</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>East</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Middle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>North</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NorthWest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>South</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SouthEast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SouthWest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DotaMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2;1-2-3;1-2-4;1-2-4-5;1-2-4-5-6;1-2-4-7;1-2-3-8;1-2-4-7-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-1;2-3;2-4;2-4-5;2-4-5-6;2-4-7;2-3-8;2-4-7-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-2-1;3-2;3-4;3-4-5;3-4-5-6;3-4-7;3-8;3-4-7-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-2-1;4-2;4-3;4-5;4-5-6;4-7;4-3-8;4-7-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-5-4-2-1;6-5-4-2;6-5-4-3;6-5-4;6-5;6-7;6-7-8;6-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-4-2-1;7-4-2;7-4-3;7-4;7-4-5;7-6;7-8;7-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-3-2-1;8-3-2;8-3;8-3-4;8-3-4-5;8-7-6;8-7;8-7-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-4-2-1;5-4-2;5-4-3;5-4;5-6;5-4-7;5-4-3-8;5-4-7-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9-7-4-2-1;9-7-4-2;9-7-4-3;9-7-4;9-7-4-5;9-7-6;9-7-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101;102;103;104;5001;5002;5003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201;202;203;204;205;206;207;208;209;210;211;212;213;214;215;216;217;218;219;220;221;5004;9001;9002;9003;9004;9005;9006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>401;402;403;404;405;406;407;408;409;410;411;9010;9011;9012;9013;9014;9015;9016;9017;9018;9019;9020;9021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>501;502;503;504;505;506;507;508;509;5005;5006;5007;5008;9022;9023;9024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>601;602;603;604;605;606;607;608;609;5009;9025;9026</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>701;702;703;704;705;706;9027;9028;9029;9030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>901;902;903;904;905;906;5013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7002;7003;7004;7005;7006;7007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7008;7009;7010;7011;7012;7013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7014;7015;7016;7017;7018;7019;7020;7021;7022;7023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7024;7025;7026;7027;7028;7029;7030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7031;7032;7033;7034;7035</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7036;7037;7038;7039;7040;7041;7042;7043</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>801;802;803;804;805;806;807;808;5010;5011;5012;9031;9032;9033;9034</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7044;7045;7046;7047</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7048;7049;7050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300;301;302;303;304;305;306;307;308;309;310;311;312;313;314;315;316;317;318;319;320;321;322;323;324;325;326;9007;9008;9009</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -370,12 +366,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -687,21 +680,21 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="17.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="1"/>
     <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
-    <col min="7" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="59" style="1" customWidth="1"/>
-    <col min="10" max="10" width="85.375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="54.125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="9.625" style="3" customWidth="1"/>
+    <col min="7" max="8" width="7.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="47.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="54.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
@@ -724,345 +717,345 @@
         <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1">
-        <v>3576</v>
+        <v>1536</v>
       </c>
       <c r="E2" s="1">
-        <v>1836</v>
+        <v>992</v>
       </c>
       <c r="F2" s="1">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="G2" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H2" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>51</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="1">
+        <v>7001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="2" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="D3" s="1">
-        <v>3472</v>
+        <v>1952</v>
       </c>
       <c r="E3" s="1">
-        <v>4440</v>
+        <v>1408</v>
       </c>
       <c r="F3" s="1">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H3" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="2" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D4" s="1">
-        <v>5112</v>
+        <v>1536</v>
       </c>
       <c r="E4" s="1">
-        <v>6112</v>
+        <v>1376</v>
       </c>
       <c r="F4" s="1">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="G4" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H4" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="2" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D5" s="1">
-        <v>5460</v>
+        <v>1472</v>
       </c>
       <c r="E5" s="1">
-        <v>1980</v>
+        <v>1216</v>
       </c>
       <c r="F5" s="1">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="G5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H5" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="2" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D6" s="1">
-        <v>3928</v>
+        <v>1984</v>
       </c>
       <c r="E6" s="1">
-        <v>3060</v>
+        <v>1984</v>
       </c>
       <c r="F6" s="1">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="G6" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H6" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D7" s="1">
-        <v>2500</v>
+        <v>1920</v>
       </c>
       <c r="E7" s="1">
-        <v>5064</v>
+        <v>2304</v>
       </c>
       <c r="F7" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G7" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H7" s="1">
         <v>5</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D8" s="1">
-        <v>4464</v>
+        <v>1408</v>
       </c>
       <c r="E8" s="1">
-        <v>3944</v>
+        <v>1536</v>
       </c>
       <c r="F8" s="1">
+        <v>9</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G8" s="1">
-        <v>8</v>
-      </c>
-      <c r="H8" s="1">
-        <v>9</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:11" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="D9" s="1">
-        <v>3176</v>
+        <v>1472</v>
       </c>
       <c r="E9" s="1">
-        <v>3024</v>
+        <v>1984</v>
       </c>
       <c r="F9" s="1">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="G9" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H9" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D10" s="1">
-        <v>4044</v>
+        <v>2560</v>
       </c>
       <c r="E10" s="1">
-        <v>2760</v>
+        <v>1344</v>
       </c>
       <c r="F10" s="1">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="G10" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H10" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J10" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D11" s="1">
         <v>1904</v>
@@ -1082,10 +1075,10 @@
       <c r="I11" s="1">
         <v>0</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="1">
         <v>0</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1101,7 +1094,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1167,7 +1160,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
@@ -1175,21 +1168,21 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -1197,15 +1190,15 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
